--- a/source files/transactions_jodine.xlsx
+++ b/source files/transactions_jodine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT Repos/ftrack/source files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D008C97-2FCB-4240-B68B-5F28556A6355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D774C9-5059-A949-8AD2-E7B0B897A5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51580" yWindow="-5900" windowWidth="68800" windowHeight="28300" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="-65400" yWindow="-4640" windowWidth="23520" windowHeight="18760" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jodine Cash" sheetId="33" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Fuel</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Vape</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
   </si>
 </sst>
 </file>
@@ -142,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -209,28 +227,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -241,15 +260,17 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -330,36 +351,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -406,6 +397,36 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -420,28 +441,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E6AB06BE-A700-E544-8CE8-B59345E4166A}" name="Table3" displayName="Table3" ref="A1:E40" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7">
-  <autoFilter ref="A1:E40" xr:uid="{E6AB06BE-A700-E544-8CE8-B59345E4166A}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D67FDBCE-677C-2245-BA4C-C014BE578263}" name="Month" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E6AB06BE-A700-E544-8CE8-B59345E4166A}" name="Table3" displayName="Table3" ref="A1:F40" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9">
+  <autoFilter ref="A1:F40" xr:uid="{E6AB06BE-A700-E544-8CE8-B59345E4166A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D67FDBCE-677C-2245-BA4C-C014BE578263}" name="Month" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{A7489763-6819-1B4D-909D-C311DA5181BF}" name="Day"/>
     <tableColumn id="3" xr3:uid="{23F7BD35-6B8B-5B45-8361-7580517A6807}" name="Account Secondary "/>
-    <tableColumn id="4" xr3:uid="{9CAC1C33-99D1-A642-821A-ADB9D7635EAF}" name="Debit" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{5CD6EB23-BB8B-6A4A-815E-1C1CF6D44084}" name="Credit" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{9CAC1C33-99D1-A642-821A-ADB9D7635EAF}" name="Debit" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5CD6EB23-BB8B-6A4A-815E-1C1CF6D44084}" name="Credit" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{814D4890-8D6B-2347-83D9-B2FC1B5C5746}" name="Subtotal" dataDxfId="0">
+      <calculatedColumnFormula>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F39B2D6C-ED5A-2E48-A021-C47867CAB746}" name="Table35" displayName="Table35" ref="A1:E40" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F39B2D6C-ED5A-2E48-A021-C47867CAB746}" name="Table35" displayName="Table35" ref="A1:E40" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
   <autoFilter ref="A1:E40" xr:uid="{E6AB06BE-A700-E544-8CE8-B59345E4166A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BD0BF1DF-7F71-5D47-BFF8-13BCD2785C3A}" name="Month" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{BD0BF1DF-7F71-5D47-BFF8-13BCD2785C3A}" name="Month" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{BE983A1E-B216-2A4E-8E61-722D583FA0D6}" name="Day"/>
     <tableColumn id="3" xr3:uid="{D36B5713-DAA6-BE40-B5D9-4358B9BD5F6C}" name="Account Secondary "/>
-    <tableColumn id="4" xr3:uid="{2D5A0B1D-96AD-484F-94BD-6964CB07D666}" name="Amount Debit" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{680EBE77-593E-BF4B-8D23-8F7B400944BA}" name="Amount Credit" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{2D5A0B1D-96AD-484F-94BD-6964CB07D666}" name="Amount Debit" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{680EBE77-593E-BF4B-8D23-8F7B400944BA}" name="Amount Credit" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -764,361 +788,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118C4334-1DDE-9149-BD51-A69750779F02}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B2" s="27">
+      <c r="F1" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B2" s="19">
         <v>15</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7">
         <v>350</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B3" s="28">
+      <c r="F2">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B3" s="20">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7">
         <v>310</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="F3">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B4" s="19">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
         <v>350</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B5" s="28">
+      <c r="F4">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B5" s="20">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11">
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="F5">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B6" s="19">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
         <v>200</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B7" s="30">
+      <c r="E6" s="7"/>
+      <c r="F6">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B7" s="20">
         <v>20</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="6">
         <v>40</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="30"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="27"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="30"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="30"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="25" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>800</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7">
+        <v>756</v>
+      </c>
+      <c r="F9">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7">
+        <v>340</v>
+      </c>
+      <c r="F10">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6">
+        <v>215</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7">
+        <v>810</v>
+      </c>
+      <c r="F12">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6">
+        <v>90</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="19"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="19"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="6">
+        <f>SUM(D2:D22)</f>
+        <v>1345</v>
+      </c>
+      <c r="E23" s="7">
+        <f>SUM(E2:E22)</f>
+        <v>3016</v>
+      </c>
+      <c r="F23">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="19"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="19"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="19"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="19"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="20"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="19"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+      <c r="F33">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="19"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+      <c r="F37">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="19"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="20"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+      <c r="F39">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="17">
+      <c r="B40" s="18"/>
+      <c r="C40" s="9">
         <f>'Jodine Cash'!$E$40-'Jodine Cash'!$D$40</f>
-        <v>870</v>
-      </c>
-      <c r="D40" s="18">
+        <v>3342</v>
+      </c>
+      <c r="D40" s="10">
         <f>SUBTOTAL(109,'Jodine Cash'!$D$2:$D$39)</f>
-        <v>240</v>
-      </c>
-      <c r="E40" s="19">
+        <v>2690</v>
+      </c>
+      <c r="E40" s="11">
         <f>SUBTOTAL(109,'Jodine Cash'!$E$2:$E$39)</f>
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-    </row>
+        <v>6032</v>
+      </c>
+      <c r="F40" s="1">
+        <f>Table3[[#This Row],[Credit]]-Table3[[#This Row],[Debit]]</f>
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="23" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1130,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B66C99B-F7DD-954D-8AC7-498CBBD7D4FD}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -1138,317 +1355,310 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
+      <c r="A12" s="16">
+        <v>45444</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="27"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="27"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="30"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="27"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="30"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="30"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-    </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="25" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="20"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="19"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="20"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="19"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="20"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="19"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="20"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="17">
+      <c r="B40" s="18"/>
+      <c r="C40" s="9">
         <f>'Jodine Cash Savings'!$E$40-'Jodine Cash Savings'!$D$40</f>
         <v>0</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="10">
         <f>SUBTOTAL(109,'Jodine Cash Savings'!$D$2:$D$39)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="11">
         <f>SUBTOTAL(109,'Jodine Cash Savings'!$E$2:$E$39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-    </row>
+    <row r="41" spans="1:5" ht="23" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
